--- a/biology/Zoologie/Happy_Feet/Happy_Feet.xlsx
+++ b/biology/Zoologie/Happy_Feet/Happy_Feet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Feet ou Les Petits Pieds du bonheur au Québec[1] est un film d'animation américano-australien réalisé par George Miller et sorti en 2006.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Happy Feet ou Les Petits Pieds du bonheur au Québec est un film d'animation américano-australien réalisé par George Miller et sorti en 2006.
 Une suite intitulée Happy Feet 2 est sortie en 2011.
 </t>
         </is>
@@ -512,11 +524,48 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une colonie de manchots qui trouvent l'âme sœur en chantant, Mumble a un handicap : il ne peut pas chanter une note juste. Il fait en revanche des claquettes comme personne. Banni par les siens à cause de sa différence, Mumble part en Terre Adélie.
-Résumé détaillé
-Chaque manchot empereur attire leur partenaire en chantant un chant d’amour unique. Si le chant du manchot mâle correspond au chant de la femelle, les deux manchots s'accouplent. Norma Jean, une femelle manchot, tombe amoureuse de Memphis, un manchot mâle et ils deviennent des partenaires. Ils pondent un œuf, dont Memphis s'occupe pendant que Norma Jean part avec les autres femelles pour la saison de la pêcher. Alors que les mâles luttent contre l'hiver rigoureux, Memphis laisse tomber quelque instant son œuf en chantant. Une fois qu’ils a éclos, Memphis découvre que sont fils, Mumble, n'est pas capable de chanter mais peut danser. Néanmoins, il est amoureux de Gloria, une femelle manchot considérée comme la plus talentueuse de son âge. Un jour, Mumble rencontre un groupe de Stercorariidae hostiles, avec un chef qui est marqué d'une bande jaune, qui, selon lui, provient d'un enlèvement extraterrestre (les humains). Mumble échappe de justesse aux oiseaux affamés en tombant dans une crevasse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque manchot empereur attire leur partenaire en chantant un chant d’amour unique. Si le chant du manchot mâle correspond au chant de la femelle, les deux manchots s'accouplent. Norma Jean, une femelle manchot, tombe amoureuse de Memphis, un manchot mâle et ils deviennent des partenaires. Ils pondent un œuf, dont Memphis s'occupe pendant que Norma Jean part avec les autres femelles pour la saison de la pêcher. Alors que les mâles luttent contre l'hiver rigoureux, Memphis laisse tomber quelque instant son œuf en chantant. Une fois qu’ils a éclos, Memphis découvre que sont fils, Mumble, n'est pas capable de chanter mais peut danser. Néanmoins, il est amoureux de Gloria, une femelle manchot considérée comme la plus talentueuse de son âge. Un jour, Mumble rencontre un groupe de Stercorariidae hostiles, avec un chef qui est marqué d'une bande jaune, qui, selon lui, provient d'un enlèvement extraterrestre (les humains). Mumble échappe de justesse aux oiseaux affamés en tombant dans une crevasse.
 Maintenant jeune adulte, Mumble est souvent ridiculisé par les anciens et leur chef Noé. Après avoir échappé à une attaque de léopard de mer, Mumble se lie d'amitié avec cinq Manchot Adélie nommés Ramón, Nestor, Lombardo, Rinaldo et Raul, connus collectivement sous le nom "les Amigos", qui apprécient les mouvements de danse de Mumble et les invite à rejoindre leur groupe. Après avoir vu une pelle mécanique humaine cachée dans une avalanche, ils choisissent de demander à Lovelace, un Gorfou de Moseley, son origine. Lovelace a les anneaux en plastique d'un paquet de six enchevêtrés autour de son cou, disant qu'ils lui ont été été offerts par des êtres mystiques.
 Pour les manchots empereurs, c'est la saison des s'acouplements et Gloria est au centre de l'attention. Les Amigos tentent sans succès d'aider Mumble à gagner son affection en faisant chanter à Ramón derrière Mumble pendant que celui-ci fait du playback avec ses lèvres. Après que Mumble ait désespérément commencé à danser en synchronisation avec la chanson de Gloria, elle tombe amoureuse de lui et les jeunes manchots se joignent à chanter et à danser sur "Boogie Wonderland". Les aînés sont consternés par la conduite de Mumble, qu'ils considèrent comme la raison de leur saison de pêche maigre. Memphis supplie Mumble d'arrêter de danser, pour lui-même, mais quand Mumble refuse, il est exilé.
 Mumble et les Amigos retournent voir Lovelace, pour le trouver étouffé par les anneaux en plastique. Lovelace avoue qu'ils ont été pris sur lui en nageant au large des rivages interdits, au-delà du pays des Éléphant de mer. Peu de temps au cours de leur voyage, Gloria les retrouve, souhaitant devenir le compagnon de Mumble. Craignant pour sa sécurité, il repousse Gloria en critiquant sa façon de chanter.
@@ -525,31 +574,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Happy_Feet</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original et français : Happy Feet
 Titre québécois : Les Petits Pieds du bonheur
@@ -560,44 +611,49 @@
 Production : Kennedy Miller Productions et Village Roadshow Pictures ainsi que Warner Bros
 Animation : Animal Logic
 Pays de production :  Australie,  États-Unis
-Budget : 100 millions de dollars[2]
+Budget : 100 millions de dollars
 Genre : comédie musicale juke-box
 Durée : 87 minutes
-Dates de sortie[3] :
+Dates de sortie :
 États-Unis : 17 novembre 2006
 France, Belgique : 6 décembre 2006
 Australie : 26 décembre 2006</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Happy_Feet</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voix originales
-Elijah Wood : Mumble
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elijah Wood : Mumble
 Robin Williams : Ramon / Lovelace
 Hugh Jackman : Memphis
 Brittany Murphy : Gloria
@@ -618,9 +674,43 @@
 Chrissie Hynde : Michelle
 Elizabeth Daily : Bébé Mumble
 Simon Westaway : Live Action Cast
-Voix additionnelles : Jack Angel, Danny Mann, Jennifer Darling, Bob Bergen, Bill Farmer, Mona Marshall, Sherry Lynn, Phil Proctor, Kevin Sorbo, Tia Carrere, Paul Eiding, Mickie T. McGowan, Brian Cummings, Jeff Bennett, Anthony Daniels, Frank Oz, Corey Burton, Dan Castellaneta, John DiMaggio, Peter Sallis, Cam Clarke, Joe Whyte, John O'Hurley et Rodger Bumpass
-Voix françaises
-Clovis Cornillac : Mumble
+Voix additionnelles : Jack Angel, Danny Mann, Jennifer Darling, Bob Bergen, Bill Farmer, Mona Marshall, Sherry Lynn, Phil Proctor, Kevin Sorbo, Tia Carrere, Paul Eiding, Mickie T. McGowan, Brian Cummings, Jeff Bennett, Anthony Daniels, Frank Oz, Corey Burton, Dan Castellaneta, John DiMaggio, Peter Sallis, Cam Clarke, Joe Whyte, John O'Hurley et Rodger Bumpass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Clovis Cornillac : Mumble
 Paul-Antoine Nahon : Mumble enfant
 Anthony Kavanagh : Lovelace, Memphis
 Kad Merad : Ramón
@@ -637,9 +727,43 @@
 Brigitte Virtudes : Miss Viola
 Gwenael Sommier : Seymour enfant
 Bernard Métraux : Chef Skua
-Sylvain Lemarié : un éléphant de mer
-Voix québécoises
-Martin Watier : Mumble
+Sylvain Lemarié : un éléphant de mer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Martin Watier : Mumble
 François-Nicolas Dolan : Mumble (Jeune)
 Éveline Gélinas : Gloria
 Claudia-Laurie Corbeil : Gloria (Jeune)
@@ -655,106 +779,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Happy_Feet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réalisateur George Miller explique qu'il a commencé à imaginer une ébauche d'intrigue lors du tournage de Mad Max 2 : Le Défi (1981) après ses échanges avec un vieux caméraman dont le père était l'aventurier Frank Hurley : « Nous étions assis dans ce bar, en train de prendre un milk-shake, et il m'a regardé et m'a dit : “L'Antarctique”. Il avait tourné un documentaire là-bas. Il a dit : “Tu dois faire un film en Antarctique. C'est comme ici, dans le désert. C'est spectaculaire." Et c'est resté toujours dans un coin de ma tête[4]. » Le cinéaste s'inspire ensuite de documentaires comme la série Life in the Freezer de la BBC[5].
-En 2001, le producteur Doug Mitchell présente de manière improvisée une première ébauche du script à Alan F. Horn, président de Warner Bros.. Ce dernier est très emballé. Le projet doit initialement être produit avec le quatrième film Mad Max. Finalement, des complications géopolitiques compliquent sa productiont et le projet Happy Feet est développé avant Mad Max[6].
-L'animation du film est en partie réalisée grâce à la capture de mouvement, notamment pour les scènes de danse, chorégraphiées par Savion Glover[7]. La production du film nécessite une énorme quantité d'ordinateurs. Animal Logic collabore ainsi avec IBM. Quatre ans seront nécessaires pour finir le film. Ben Gunsberger, superviseur du départements lumière et effets spéciaux, justifie en partie cette durée en expliquant qu'il a fallu créer de nombreux outils et infrastructures[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Happy_Feet</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bande originale</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La musique du film est composée par John Powell. Un album de ses compositions sort le 19 décembre 2006. Le film étant une comédie musicale juke-box, il contient de nombreuses chansons. Un second album, Happy Feet: Music from the Motion Picture, contient les chansons présentes dans le film.
-Prince avait initialement refusé l'utilisation de sa chanson Kiss. Cependant, après avoir vu des extraits du film, il l'a autorisé et a même décidé d'enregistrer une chanson inédité, The Song of the Heart[6].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Happy_Feet</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 76% d'opinions favorables pour 169 critiques et une note moyenne de 6,9⁄10. Le consensus suivant résume les critiques compilées par le site : « Visuellement éblouissant, avec un scénario réfléchi et des numéros musicaux accrocheurs, Happy Feet marque les débuts animés réussis des créateurs de Babe[10] ». Sur Metacritic, il obtient une note moyenne de 77⁄100 pour 30 critiques[11].
-En France, le film obtient une note moyenne de 3,6⁄5 sur le site AlloCiné, qui recense 22 titres de presse[12].
-Box-office
-Le film rencontre un succès commercial. Il termine notamment à la 7e place du box-office nord-américain annuel. En France, il dépasse 1,5 million d'entrées mais ne réalise que le 27e meilleur score du box-office national annuel.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -776,10 +800,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réalisateur George Miller explique qu'il a commencé à imaginer une ébauche d'intrigue lors du tournage de Mad Max 2 : Le Défi (1981) après ses échanges avec un vieux caméraman dont le père était l'aventurier Frank Hurley : « Nous étions assis dans ce bar, en train de prendre un milk-shake, et il m'a regardé et m'a dit : “L'Antarctique”. Il avait tourné un documentaire là-bas. Il a dit : “Tu dois faire un film en Antarctique. C'est comme ici, dans le désert. C'est spectaculaire." Et c'est resté toujours dans un coin de ma tête. » Le cinéaste s'inspire ensuite de documentaires comme la série Life in the Freezer de la BBC.
+En 2001, le producteur Doug Mitchell présente de manière improvisée une première ébauche du script à Alan F. Horn, président de Warner Bros.. Ce dernier est très emballé. Le projet doit initialement être produit avec le quatrième film Mad Max. Finalement, des complications géopolitiques compliquent sa productiont et le projet Happy Feet est développé avant Mad Max.
+L'animation du film est en partie réalisée grâce à la capture de mouvement, notamment pour les scènes de danse, chorégraphiées par Savion Glover. La production du film nécessite une énorme quantité d'ordinateurs. Animal Logic collabore ainsi avec IBM. Quatre ans seront nécessaires pour finir le film. Ben Gunsberger, superviseur du départements lumière et effets spéciaux, justifie en partie cette durée en expliquant qu'il a fallu créer de nombreux outils et infrastructures.
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -802,13 +835,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Commentaires</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mumble est un manchot et non un pingouin comme on peut l'entendre souvent, à tort (cela est dû au fait que le manchot se dit « penguin » en langue anglaise, souvent mal traduit en "pingouin", alors que l'unique espèce de "pingouin", le Grand Pingouin, un oiseau marin volant, se traduit par « auk »). Outre le manchot empereur, on voit apparaître plusieurs espèces d'animaux d'Antarctique dans ce film : le manchot Adélie, le gorfou macaroni, le skua subantarctique, le léopard de mer, l'éléphant de mer du sud et l'orque.
-Le film est dédié à la mémoire de Steve Irwin. Ce dernier est décédé en septembre 2006. Happy Feet marque sa dernière apparition[6]. Il est aussi dédié à Nick Enright, coscénariste de Lorenzo, autre film de George Miller.
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique du film est composée par John Powell. Un album de ses compositions sort le 19 décembre 2006. Le film étant une comédie musicale juke-box, il contient de nombreuses chansons. Un second album, Happy Feet: Music from the Motion Picture, contient les chansons présentes dans le film.
+Prince avait initialement refusé l'utilisation de sa chanson Kiss. Cependant, après avoir vu des extraits du film, il l'a autorisé et a même décidé d'enregistrer une chanson inédité, The Song of the Heart.
 </t>
         </is>
       </c>
@@ -834,10 +869,149 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 76% d'opinions favorables pour 169 critiques et une note moyenne de 6,9⁄10. Le consensus suivant résume les critiques compilées par le site : « Visuellement éblouissant, avec un scénario réfléchi et des numéros musicaux accrocheurs, Happy Feet marque les débuts animés réussis des créateurs de Babe ». Sur Metacritic, il obtient une note moyenne de 77⁄100 pour 30 critiques.
+En France, le film obtient une note moyenne de 3,6⁄5 sur le site AlloCiné, qui recense 22 titres de presse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film rencontre un succès commercial. Il termine notamment à la 7e place du box-office nord-américain annuel. En France, il dépasse 1,5 million d'entrées mais ne réalise que le 27e meilleur score du box-office national annuel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mumble est un manchot et non un pingouin comme on peut l'entendre souvent, à tort (cela est dû au fait que le manchot se dit « penguin » en langue anglaise, souvent mal traduit en "pingouin", alors que l'unique espèce de "pingouin", le Grand Pingouin, un oiseau marin volant, se traduit par « auk »). Outre le manchot empereur, on voit apparaître plusieurs espèces d'animaux d'Antarctique dans ce film : le manchot Adélie, le gorfou macaroni, le skua subantarctique, le léopard de mer, l'éléphant de mer du sud et l'orque.
+Le film est dédié à la mémoire de Steve Irwin. Ce dernier est décédé en septembre 2006. Happy Feet marque sa dernière apparition. Il est aussi dédié à Nick Enright, coscénariste de Lorenzo, autre film de George Miller.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Happy_Feet</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Happy_Feet</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adaptation en jeu vidéo</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Happy Feet a été développé par Artificial Mind and Movement et édité par Midway Games. Il est sorti sur Windows, GameCube, Wii, PlayStation 2, Game Boy Advance et Nintendo DS.
 </t>
